--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/training/training_act11d0_01_b.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/training/training_act11d0_01_b.xlsx
@@ -76,7 +76,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_beagle")] So, this… is supposed to be the &lt;@tu.kw&gt;Protocol Entry&lt;/&gt;? I should…
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_beagle")] So, this... is supposed to be the &lt;@tu.kw&gt;Protocol Entry&lt;/&gt;? I should...
 </t>
   </si>
   <si>
@@ -92,7 +92,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_jesica")] Uh, um… Okay! I'm coming… Uu…
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_jesica")] Uh, um... Okay! I'm coming... Uu...
 </t>
   </si>
   <si>
